--- a/natmiOut/OldD0/LR-pairs_lrc2p/Thbs1-Itgb1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Thbs1-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>60.9505918773117</v>
+        <v>142.9073533333333</v>
       </c>
       <c r="H2">
-        <v>60.9505918773117</v>
+        <v>428.72206</v>
       </c>
       <c r="I2">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504187</v>
       </c>
       <c r="J2">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504188</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N2">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q2">
-        <v>6447.400576225955</v>
+        <v>16726.52872038659</v>
       </c>
       <c r="R2">
-        <v>6447.400576225955</v>
+        <v>150538.7584834794</v>
       </c>
       <c r="S2">
-        <v>0.107570602180251</v>
+        <v>0.1809831425338054</v>
       </c>
       <c r="T2">
-        <v>0.107570602180251</v>
+        <v>0.1809831425338055</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>60.9505918773117</v>
+        <v>142.9073533333333</v>
       </c>
       <c r="H3">
-        <v>60.9505918773117</v>
+        <v>428.72206</v>
       </c>
       <c r="I3">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504187</v>
       </c>
       <c r="J3">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504188</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N3">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q3">
-        <v>6185.952722933796</v>
+        <v>14516.53428680786</v>
       </c>
       <c r="R3">
-        <v>6185.952722933796</v>
+        <v>130648.8085812707</v>
       </c>
       <c r="S3">
-        <v>0.1032085181612937</v>
+        <v>0.1570707250646743</v>
       </c>
       <c r="T3">
-        <v>0.1032085181612937</v>
+        <v>0.1570707250646743</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>60.9505918773117</v>
+        <v>142.9073533333333</v>
       </c>
       <c r="H4">
-        <v>60.9505918773117</v>
+        <v>428.72206</v>
       </c>
       <c r="I4">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504187</v>
       </c>
       <c r="J4">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504188</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N4">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q4">
-        <v>8555.863048251176</v>
+        <v>20296.67256605756</v>
       </c>
       <c r="R4">
-        <v>8555.863048251176</v>
+        <v>182670.0530945181</v>
       </c>
       <c r="S4">
-        <v>0.1427489000242757</v>
+        <v>0.219612547551939</v>
       </c>
       <c r="T4">
-        <v>0.1427489000242757</v>
+        <v>0.2196125475519391</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>62.7545169567987</v>
+        <v>63.967809</v>
       </c>
       <c r="H5">
-        <v>62.7545169567987</v>
+        <v>191.903427</v>
       </c>
       <c r="I5">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="J5">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N5">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q5">
-        <v>6638.221161206727</v>
+        <v>7487.084250472466</v>
       </c>
       <c r="R5">
-        <v>6638.221161206727</v>
+        <v>67383.7582542522</v>
       </c>
       <c r="S5">
-        <v>0.1107543170731117</v>
+        <v>0.08101119238293156</v>
       </c>
       <c r="T5">
-        <v>0.1107543170731117</v>
+        <v>0.08101119238293156</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>62.7545169567987</v>
+        <v>63.967809</v>
       </c>
       <c r="H6">
-        <v>62.7545169567987</v>
+        <v>191.903427</v>
       </c>
       <c r="I6">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="J6">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N6">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q6">
-        <v>6369.035362719859</v>
+        <v>6497.852426351536</v>
       </c>
       <c r="R6">
-        <v>6369.035362719859</v>
+        <v>58480.67183716383</v>
       </c>
       <c r="S6">
-        <v>0.1062631305710076</v>
+        <v>0.07030757974358909</v>
       </c>
       <c r="T6">
-        <v>0.1062631305710076</v>
+        <v>0.07030757974358909</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>62.7545169567987</v>
+        <v>63.967809</v>
       </c>
       <c r="H7">
-        <v>62.7545169567987</v>
+        <v>191.903427</v>
       </c>
       <c r="I7">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="J7">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N7">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q7">
-        <v>8809.086773468873</v>
+        <v>9085.142532957903</v>
       </c>
       <c r="R7">
-        <v>8809.086773468873</v>
+        <v>81766.28279662113</v>
       </c>
       <c r="S7">
-        <v>0.1469737699212132</v>
+        <v>0.09830238380413073</v>
       </c>
       <c r="T7">
-        <v>0.1469737699212132</v>
+        <v>0.09830238380413074</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>48.7015700318019</v>
+        <v>49.38440333333333</v>
       </c>
       <c r="H8">
-        <v>48.7015700318019</v>
+        <v>148.15321</v>
       </c>
       <c r="I8">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="J8">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N8">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q8">
-        <v>5151.689606529175</v>
+        <v>5780.175907165743</v>
       </c>
       <c r="R8">
-        <v>5151.689606529175</v>
+        <v>52021.58316449169</v>
       </c>
       <c r="S8">
-        <v>0.08595252407047932</v>
+        <v>0.06254222962604444</v>
       </c>
       <c r="T8">
-        <v>0.08595252407047932</v>
+        <v>0.06254222962604446</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>48.7015700318019</v>
+        <v>49.38440333333333</v>
       </c>
       <c r="H9">
-        <v>48.7015700318019</v>
+        <v>148.15321</v>
       </c>
       <c r="I9">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="J9">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N9">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q9">
-        <v>4942.783990609931</v>
+        <v>5016.469534284391</v>
       </c>
       <c r="R9">
-        <v>4942.783990609931</v>
+        <v>45148.22580855952</v>
       </c>
       <c r="S9">
-        <v>0.08246707243185573</v>
+        <v>0.05427883070761264</v>
       </c>
       <c r="T9">
-        <v>0.08246707243185573</v>
+        <v>0.05427883070761264</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>48.7015700318019</v>
+        <v>49.38440333333333</v>
       </c>
       <c r="H10">
-        <v>48.7015700318019</v>
+        <v>148.15321</v>
       </c>
       <c r="I10">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="J10">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N10">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q10">
-        <v>6836.421937717351</v>
+        <v>7013.908248575698</v>
       </c>
       <c r="R10">
-        <v>6836.421937717351</v>
+        <v>63125.17423718129</v>
       </c>
       <c r="S10">
-        <v>0.114061165566512</v>
+        <v>0.07589136858527272</v>
       </c>
       <c r="T10">
-        <v>0.114061165566512</v>
+        <v>0.07589136858527273</v>
       </c>
     </row>
   </sheetData>
